--- a/Journal.xlsx
+++ b/Journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hossein/Journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE69C4A-1F6B-624C-9973-2B9B6F4BBC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A669D58-EB7D-3648-A649-ABF232373038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="33600" windowHeight="19440" activeTab="13" xr2:uid="{809DD602-1425-EC47-9181-67BC39C26364}"/>
   </bookViews>
@@ -71,6 +71,7 @@
     <definedName name="table">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -548,20 +549,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">  1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{D90569A3-AC23-DD45-AF29-FDAB2466E73A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0.25</t>
         </r>
       </text>
     </comment>
@@ -2415,7 +2402,7 @@
     <cellStyle name="40% - Accent4" xfId="1" builtinId="43"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="594">
+  <dxfs count="579">
     <dxf>
       <font>
         <color theme="4"/>
@@ -2423,6 +2410,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
@@ -2433,11 +2470,96 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="4"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -2453,6 +2575,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.24994659260841701"/>
       </font>
     </dxf>
@@ -2468,6 +2600,21 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.14996795556505021"/>
       </font>
     </dxf>
@@ -2508,46 +2655,656 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.34998626667073579"/>
       </font>
     </dxf>
@@ -2558,6 +3315,181 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.34998626667073579"/>
       </font>
     </dxf>
@@ -2568,11 +3500,1416 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.34998626667073579"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
@@ -2593,6 +4930,236 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
@@ -2603,52 +5170,22 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1" tint="0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
     <dxf>
@@ -2658,17 +5195,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1" tint="0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
     <dxf>
@@ -2699,2626 +5231,6 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -6340,42 +6252,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="593" priority="11" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="578" priority="11" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:XFD6">
-    <cfRule type="containsText" dxfId="592" priority="8" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="577" priority="8" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="591" priority="9" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="576" priority="9" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:XFD32">
-    <cfRule type="containsText" dxfId="590" priority="10" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="575" priority="10" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="589" priority="12" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="574" priority="12" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 O2">
-    <cfRule type="containsText" dxfId="588" priority="1" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="573" priority="1" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="587" priority="3" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="572" priority="3" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="586" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="571" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="570" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="569" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6809,42 +6721,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="244" priority="10" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="229" priority="10" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:XFD6">
-    <cfRule type="containsText" dxfId="243" priority="7" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="228" priority="7" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="8" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="227" priority="8" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:XFD32">
-    <cfRule type="containsText" dxfId="241" priority="9" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="226" priority="9" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="11" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="225" priority="11" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 O2">
-    <cfRule type="containsText" dxfId="239" priority="1" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="224" priority="1" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="2" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="223" priority="2" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="237" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="221" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="220" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7548,128 +7460,128 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="233" priority="34" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="218" priority="34" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="232" priority="8" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="217" priority="8" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD5">
-    <cfRule type="containsText" dxfId="231" priority="36" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="216" priority="36" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="37" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="215" priority="37" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:XFD9">
-    <cfRule type="containsText" dxfId="229" priority="33" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="214" priority="35" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="35" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="213" priority="33" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:XFD14">
-    <cfRule type="containsText" dxfId="227" priority="27" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="212" priority="28" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="28" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="211" priority="27" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:XFD18">
-    <cfRule type="containsText" dxfId="225" priority="21" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="210" priority="21" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="22" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="209" priority="22" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule type="containsText" dxfId="223" priority="16" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="208" priority="16" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:XFD50">
-    <cfRule type="containsText" dxfId="222" priority="14" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="207" priority="14" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="15" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="206" priority="15" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:XFD54">
-    <cfRule type="containsText" dxfId="220" priority="7" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="205" priority="7" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="9" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="204" priority="9" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:XFD59">
-    <cfRule type="containsText" dxfId="218" priority="5" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="203" priority="5" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="6" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="202" priority="6" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5">
-    <cfRule type="cellIs" dxfId="216" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14">
-    <cfRule type="cellIs" dxfId="213" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="196" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="cellIs" dxfId="210" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50">
-    <cfRule type="cellIs" dxfId="207" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U59">
-    <cfRule type="cellIs" dxfId="204" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8038,51 +7950,51 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6">
-    <cfRule type="containsText" dxfId="196" priority="7" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="181" priority="7" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="195" priority="4" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="180" priority="4" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:XFD6">
-    <cfRule type="containsText" dxfId="194" priority="6" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="179" priority="6" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="8" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="178" priority="8" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:XFD33">
-    <cfRule type="containsText" dxfId="192" priority="3" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="177" priority="3" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="5" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="176" priority="5" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="190" priority="1" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="175" priority="1" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="2" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="174" priority="2" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 N2">
-    <cfRule type="containsText" dxfId="188" priority="11" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="173" priority="11" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="containsText" dxfId="187" priority="10" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="172" priority="10" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="containsText" dxfId="186" priority="9" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="171" priority="9" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12392,219 +12304,219 @@
   <sheetProtection algorithmName="SHA-512" hashValue="rLsz05PB8iUmBalb0HZ5VznQdJ6vdE4PYwTjw+GZUxehcPajjkCi5/piqzEpX6uc1yCT91ZEC4OMD8vrld7XiA==" saltValue="U+bAYotwBVKmWafPqlCiww==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="B4:B6 B8:B10 B12:B14">
-    <cfRule type="beginsWith" dxfId="185" priority="15" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="170" priority="15" operator="beginsWith" text="E">
       <formula>LEFT(B4,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="184" priority="16" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="169" priority="16" operator="beginsWith" text="X">
       <formula>LEFT(B4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B20">
-    <cfRule type="beginsWith" dxfId="183" priority="5" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="168" priority="5" operator="beginsWith" text="E">
       <formula>LEFT(B16,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="182" priority="6" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="167" priority="6" operator="beginsWith" text="X">
       <formula>LEFT(B16,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="beginsWith" dxfId="181" priority="13" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="166" priority="13" operator="beginsWith" text="E">
       <formula>LEFT(B24,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="14" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="165" priority="14" operator="beginsWith" text="X">
       <formula>LEFT(B24,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="beginsWith" dxfId="179" priority="7" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="164" priority="7" operator="beginsWith" text="S">
       <formula>LEFT(C20,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="178" priority="8" operator="beginsWith" text="L">
+    <cfRule type="beginsWith" dxfId="163" priority="8" operator="beginsWith" text="L">
       <formula>LEFT(C20,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6 D8:D10 D12:D14">
-    <cfRule type="beginsWith" dxfId="177" priority="17" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="162" priority="17" operator="beginsWith" text="E">
       <formula>LEFT(D4,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="176" priority="18" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="161" priority="18" operator="beginsWith" text="X">
       <formula>LEFT(D4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D20">
-    <cfRule type="beginsWith" dxfId="175" priority="9" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="160" priority="9" operator="beginsWith" text="E">
       <formula>LEFT(D16,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="174" priority="10" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="159" priority="10" operator="beginsWith" text="X">
       <formula>LEFT(D16,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D25">
-    <cfRule type="beginsWith" dxfId="173" priority="11" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="158" priority="11" operator="beginsWith" text="E">
       <formula>LEFT(D24,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="172" priority="12" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="157" priority="12" operator="beginsWith" text="X">
       <formula>LEFT(D24,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F6 F8:F10 F12:F14 F16:F20 F24:F25">
-    <cfRule type="beginsWith" dxfId="171" priority="51" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="156" priority="51" operator="beginsWith" text="E">
       <formula>LEFT(F4,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="170" priority="52" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="155" priority="52" operator="beginsWith" text="X">
       <formula>LEFT(F4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28 F30:F167">
-    <cfRule type="beginsWith" dxfId="169" priority="63" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="154" priority="64" operator="beginsWith" text="X">
+      <formula>LEFT(F28,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="153" priority="63" operator="beginsWith" text="E">
       <formula>LEFT(F28,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="168" priority="64" operator="beginsWith" text="X">
-      <formula>LEFT(F28,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H20 H24:H25">
-    <cfRule type="beginsWith" dxfId="167" priority="53" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="152" priority="53" operator="beginsWith" text="S">
       <formula>LEFT(H3,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="166" priority="54" operator="beginsWith" text="L">
+    <cfRule type="beginsWith" dxfId="151" priority="54" operator="beginsWith" text="L">
       <formula>LEFT(H3,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H167">
-    <cfRule type="beginsWith" dxfId="165" priority="36" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="150" priority="37" operator="beginsWith" text="L">
+      <formula>LEFT(H28,LEN("L"))="L"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="149" priority="36" operator="beginsWith" text="S">
       <formula>LEFT(H28,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="37" operator="beginsWith" text="L">
-      <formula>LEFT(H28,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I20 I24:I25">
-    <cfRule type="beginsWith" dxfId="163" priority="49" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="148" priority="50" operator="beginsWith" text="Y">
+      <formula>LEFT(I3,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="147" priority="49" operator="beginsWith" text="N">
       <formula>LEFT(I3,LEN("N"))="N"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="162" priority="50" operator="beginsWith" text="Y">
-      <formula>LEFT(I3,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I167">
-    <cfRule type="beginsWith" dxfId="161" priority="34" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="146" priority="35" operator="beginsWith" text="Y">
+      <formula>LEFT(I28,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="145" priority="34" operator="beginsWith" text="N">
       <formula>LEFT(I28,LEN("N"))="N"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="160" priority="35" operator="beginsWith" text="Y">
-      <formula>LEFT(I28,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M20 M24:M25">
-    <cfRule type="beginsWith" dxfId="159" priority="45" operator="beginsWith" text="L">
+    <cfRule type="containsText" dxfId="144" priority="48" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",M3)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="143" priority="47" operator="beginsWith" text="M">
+      <formula>LEFT(M3,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="142" priority="46" operator="beginsWith" text="M">
+      <formula>LEFT(M3,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="141" priority="45" operator="beginsWith" text="L">
       <formula>LEFT(M3,LEN("L"))="L"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="158" priority="46" operator="beginsWith" text="M">
-      <formula>LEFT(M3,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="157" priority="47" operator="beginsWith" text="M">
-      <formula>LEFT(M3,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="48" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:M167">
-    <cfRule type="beginsWith" dxfId="155" priority="30" operator="beginsWith" text="L">
+    <cfRule type="containsText" dxfId="140" priority="33" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",M28)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="139" priority="32" operator="beginsWith" text="M">
+      <formula>LEFT(M28,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="138" priority="31" operator="beginsWith" text="M">
+      <formula>LEFT(M28,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="137" priority="30" operator="beginsWith" text="L">
       <formula>LEFT(M28,LEN("L"))="L"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="154" priority="31" operator="beginsWith" text="M">
-      <formula>LEFT(M28,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="153" priority="32" operator="beginsWith" text="M">
-      <formula>LEFT(M28,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="33" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",M28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="beginsWith" dxfId="151" priority="1" operator="beginsWith" text="L">
+    <cfRule type="beginsWith" dxfId="136" priority="1" operator="beginsWith" text="L">
       <formula>LEFT(O7,LEN("L"))="L"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="150" priority="2" operator="beginsWith" text="M">
+    <cfRule type="containsText" dxfId="135" priority="4" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",O7)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="134" priority="2" operator="beginsWith" text="M">
       <formula>LEFT(O7,LEN("M"))="M"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="149" priority="3" operator="beginsWith" text="M">
+    <cfRule type="beginsWith" dxfId="133" priority="3" operator="beginsWith" text="M">
       <formula>LEFT(O7,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="4" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T20 T24:T25">
-    <cfRule type="beginsWith" dxfId="147" priority="55" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="132" priority="59" operator="beginsWith" text="T">
+      <formula>LEFT(T3,LEN("T"))="T"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="131" priority="58" operator="beginsWith" text="S">
+      <formula>LEFT(T3,LEN("S"))="S"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="130" priority="57" operator="beginsWith" text="C">
+      <formula>LEFT(T3,LEN("C"))="C"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="129" priority="56" operator="beginsWith" text="B">
+      <formula>LEFT(T3,LEN("B"))="B"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="128" priority="55" operator="beginsWith" text="D">
       <formula>LEFT(T3,LEN("D"))="D"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="146" priority="56" operator="beginsWith" text="B">
-      <formula>LEFT(T3,LEN("B"))="B"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="145" priority="57" operator="beginsWith" text="C">
-      <formula>LEFT(T3,LEN("C"))="C"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="144" priority="58" operator="beginsWith" text="S">
-      <formula>LEFT(T3,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="143" priority="59" operator="beginsWith" text="T">
-      <formula>LEFT(T3,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28:T167">
-    <cfRule type="beginsWith" dxfId="142" priority="38" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="127" priority="38" operator="beginsWith" text="D">
       <formula>LEFT(T28,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="141" priority="39" operator="beginsWith" text="B">
+    <cfRule type="beginsWith" dxfId="126" priority="39" operator="beginsWith" text="B">
       <formula>LEFT(T28,LEN("B"))="B"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="140" priority="40" operator="beginsWith" text="C">
+    <cfRule type="beginsWith" dxfId="125" priority="40" operator="beginsWith" text="C">
       <formula>LEFT(T28,LEN("C"))="C"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="139" priority="41" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="124" priority="41" operator="beginsWith" text="S">
       <formula>LEFT(T28,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="42" operator="beginsWith" text="T">
+    <cfRule type="beginsWith" dxfId="123" priority="42" operator="beginsWith" text="T">
       <formula>LEFT(T28,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U14">
-    <cfRule type="beginsWith" dxfId="136" priority="19" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="121" priority="23" operator="beginsWith" text="T">
+      <formula>LEFT(U13,LEN("T"))="T"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="120" priority="20" operator="beginsWith" text="B">
+      <formula>LEFT(U13,LEN("B"))="B"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="119" priority="19" operator="beginsWith" text="D">
       <formula>LEFT(U13,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="135" priority="20" operator="beginsWith" text="B">
-      <formula>LEFT(U13,LEN("B"))="B"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="134" priority="21" operator="beginsWith" text="C">
+    <cfRule type="beginsWith" dxfId="118" priority="21" operator="beginsWith" text="C">
       <formula>LEFT(U13,LEN("C"))="C"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="133" priority="22" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="117" priority="22" operator="beginsWith" text="S">
       <formula>LEFT(U13,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="132" priority="23" operator="beginsWith" text="T">
-      <formula>LEFT(U13,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:W12">
-    <cfRule type="cellIs" dxfId="128" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:W18">
-    <cfRule type="cellIs" dxfId="126" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20:W20">
-    <cfRule type="cellIs" dxfId="125" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:W29">
-    <cfRule type="cellIs" dxfId="123" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13406,182 +13318,179 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="121" priority="146" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="106" priority="146" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="120" priority="26" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="105" priority="26" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="containsText" dxfId="119" priority="23" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="104" priority="23" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="118" priority="20" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="103" priority="20" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="containsText" dxfId="102" priority="5" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="117" priority="255" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="101" priority="255" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:I8">
+    <cfRule type="containsText" dxfId="100" priority="27" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:I11">
+    <cfRule type="containsText" dxfId="99" priority="24" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:I14">
+    <cfRule type="containsText" dxfId="98" priority="21" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD5">
-    <cfRule type="containsText" dxfId="116" priority="145" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="97" priority="147" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="147" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="96" priority="145" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:I8 K8:XFD8">
-    <cfRule type="containsText" dxfId="114" priority="25" operator="containsText" text="SELECT">
+  <conditionalFormatting sqref="A8:XFD8">
+    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="27" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A8)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:I11 K11:XFD11">
-    <cfRule type="containsText" dxfId="112" priority="22" operator="containsText" text="SELECT">
+  <conditionalFormatting sqref="A11:XFD11">
+    <cfRule type="containsText" dxfId="94" priority="9" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="24" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A11)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:I14 K14:XFD14">
-    <cfRule type="containsText" dxfId="110" priority="19" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="21" operator="containsText" text="SELECT">
+  <conditionalFormatting sqref="A14:XFD14">
+    <cfRule type="containsText" dxfId="93" priority="7" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:XFD16">
-    <cfRule type="containsText" dxfId="108" priority="17" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="92" priority="17" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="18" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="91" priority="18" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:XFD17">
+    <cfRule type="containsText" dxfId="90" priority="2" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:XFD21">
+    <cfRule type="containsText" dxfId="88" priority="4" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="6" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:XFD32">
-    <cfRule type="containsText" dxfId="106" priority="254" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="86" priority="256" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="256" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="85" priority="254" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:XFD36">
-    <cfRule type="containsText" dxfId="104" priority="194" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="84" priority="194" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="195" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="83" priority="195" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="102" priority="238" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="82" priority="238" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="239" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="81" priority="239" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="100" priority="240" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="80" priority="240" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="241" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="79" priority="241" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:XFD8">
+    <cfRule type="containsText" dxfId="78" priority="12" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:XFD11">
+    <cfRule type="containsText" dxfId="77" priority="10" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:XFD14">
+    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="containsText" dxfId="98" priority="242" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="75" priority="242" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2 L2">
-    <cfRule type="containsText" dxfId="97" priority="247" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="74" priority="247" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="containsText" dxfId="96" priority="245" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="73" priority="245" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U16:U17">
-    <cfRule type="cellIs" dxfId="95" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U36">
-    <cfRule type="cellIs" dxfId="92" priority="191" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="191" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="192" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="192" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="193" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="193" operator="greaterThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="87" priority="11" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="12" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",J8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="85" priority="9" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",J11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="10" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",J11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="83" priority="7" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",J14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="8" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",J14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:XFD21">
-    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="6" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:XFD17">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -13593,7 +13502,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{A07BF909-57E1-844A-B0E4-2B07F1C74DF0}">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{B44CB24F-E223-874D-B2AA-0DD504864603}">
             <xm:f>NOT(ISERROR(SEARCH("-",U16)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -13602,7 +13511,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>U16:V16</xm:sqref>
+          <xm:sqref>U16:V17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="190" operator="containsText" id="{B07D1286-B06B-3B4B-BD36-855CD4ADDC17}">
@@ -13615,18 +13524,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>U36:V36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{B44CB24F-E223-874D-B2AA-0DD504864603}">
-            <xm:f>NOT(ISERROR(SEARCH("-",U17)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="4"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>U17:V17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -14278,161 +14175,158 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="70" priority="23" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="64" priority="23" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="69" priority="20" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="63" priority="20" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="containsText" dxfId="68" priority="17" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="62" priority="17" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="67" priority="14" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="61" priority="14" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="66" priority="39" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="60" priority="39" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:I8">
+    <cfRule type="containsText" dxfId="59" priority="21" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:I11">
+    <cfRule type="containsText" dxfId="58" priority="18" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:I14">
+    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD5">
-    <cfRule type="containsText" dxfId="65" priority="22" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="56" priority="24" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="24" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="55" priority="22" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:I8 K8:XFD8">
-    <cfRule type="containsText" dxfId="63" priority="19" operator="containsText" text="SELECT">
+  <conditionalFormatting sqref="A8:XFD8">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="21" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A8)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:I11 K11:XFD11">
-    <cfRule type="containsText" dxfId="61" priority="16" operator="containsText" text="SELECT">
+  <conditionalFormatting sqref="A11:XFD11">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="18" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A11)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:I14 K14:XFD14">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="SELECT">
+  <conditionalFormatting sqref="A14:XFD14">
+    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:XFD16">
-    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="51" priority="12" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="12" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:XFD32">
-    <cfRule type="containsText" dxfId="55" priority="38" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="49" priority="38" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="40" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="48" priority="40" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:XFD36">
-    <cfRule type="containsText" dxfId="53" priority="29" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="30" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="46" priority="30" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="51" priority="31" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="45" priority="31" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="32" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="44" priority="32" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="43" priority="33" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="34" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="42" priority="34" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:XFD8">
+    <cfRule type="containsText" dxfId="41" priority="6" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:XFD11">
+    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:XFD14">
+    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="containsText" dxfId="47" priority="35" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2 L2">
-    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="containsText" dxfId="45" priority="36" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U16">
-    <cfRule type="cellIs" dxfId="44" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U36">
-    <cfRule type="cellIs" dxfId="41" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",J8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",J11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",J11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",J14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -15088,117 +14982,117 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6">
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:XFD6">
-    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:XFD9">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:XFD12">
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:XFD15">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:XFD32">
-    <cfRule type="containsText" dxfId="17" priority="26" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="28" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="13" priority="26" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:XFD36">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="9" priority="20" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="22" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="7" priority="22" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="6" priority="23" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2 L2">
-    <cfRule type="containsText" dxfId="8" priority="25" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="containsText" dxfId="7" priority="24" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="4" priority="24" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U36">
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16459,204 +16353,204 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="582" priority="58" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="567" priority="58" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="581" priority="32" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="566" priority="32" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD5">
-    <cfRule type="containsText" dxfId="580" priority="60" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="565" priority="61" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="579" priority="61" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="564" priority="60" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:XFD9">
-    <cfRule type="containsText" dxfId="578" priority="57" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="563" priority="59" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="577" priority="59" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="562" priority="57" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:XFD14">
-    <cfRule type="containsText" dxfId="576" priority="51" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="561" priority="52" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="575" priority="52" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="560" priority="51" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:XFD18">
-    <cfRule type="containsText" dxfId="574" priority="45" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="559" priority="46" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="573" priority="46" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="558" priority="45" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:XFD23">
+    <cfRule type="containsText" dxfId="557" priority="5" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="556" priority="6" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule type="containsText" dxfId="572" priority="40" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="555" priority="40" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:XFD50">
-    <cfRule type="containsText" dxfId="571" priority="38" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="554" priority="39" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="570" priority="39" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="553" priority="38" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:XFD54">
-    <cfRule type="containsText" dxfId="569" priority="31" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="552" priority="31" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="568" priority="33" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="551" priority="33" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:XFD59">
-    <cfRule type="containsText" dxfId="567" priority="29" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="550" priority="29" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="566" priority="30" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="549" priority="30" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:XFD63">
+    <cfRule type="containsText" dxfId="548" priority="11" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="547" priority="12" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:XFD73">
+    <cfRule type="containsText" dxfId="546" priority="18" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="545" priority="17" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:XFD76">
-    <cfRule type="containsText" dxfId="565" priority="23" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="544" priority="23" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="564" priority="24" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="543" priority="24" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5">
-    <cfRule type="cellIs" dxfId="563" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="542" priority="55" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="541" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="540" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14">
-    <cfRule type="cellIs" dxfId="560" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="539" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="538" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="537" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="cellIs" dxfId="557" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="536" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="535" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="534" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23">
+    <cfRule type="cellIs" dxfId="533" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="532" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="531" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50">
-    <cfRule type="cellIs" dxfId="554" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="530" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="529" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="528" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U59">
-    <cfRule type="cellIs" dxfId="551" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="527" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="526" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="525" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U63">
+    <cfRule type="cellIs" dxfId="524" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="523" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="522" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U73">
+    <cfRule type="cellIs" dxfId="521" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="520" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="519" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U76">
-    <cfRule type="cellIs" dxfId="548" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="518" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="517" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:XFD73">
-    <cfRule type="containsText" dxfId="539" priority="17" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="538" priority="18" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U73">
-    <cfRule type="cellIs" dxfId="537" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:XFD63">
-    <cfRule type="containsText" dxfId="533" priority="11" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="12" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U63">
-    <cfRule type="cellIs" dxfId="531" priority="8" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:XFD23">
-    <cfRule type="containsText" dxfId="527" priority="5" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="6" operator="containsText" text="SELECT">
-      <formula>NOT(ISERROR(SEARCH("SELECT",A23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="525" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="516" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16704,6 +16598,18 @@
           <xm:sqref>U18:V18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{9B4E2539-837B-8F46-8E0F-F6F0E9EA5447}">
+            <xm:f>NOT(ISERROR(SEARCH("-",U23)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="4"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U23:V23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="34" operator="containsText" id="{C5ED0485-4AAE-AF4D-A016-117B9433555C}">
             <xm:f>NOT(ISERROR(SEARCH("-",U50)))</xm:f>
             <xm:f>"-"</xm:f>
@@ -16728,8 +16634,8 @@
           <xm:sqref>U59:V59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{954B8FBC-CAE0-954B-9C9E-1DF274C05C5C}">
-            <xm:f>NOT(ISERROR(SEARCH("-",U76)))</xm:f>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{74D2F37C-13D1-174D-8752-1D5458419E7B}">
+            <xm:f>NOT(ISERROR(SEARCH("-",U63)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -16737,7 +16643,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>U76:V76</xm:sqref>
+          <xm:sqref>U63:V63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="13" operator="containsText" id="{975A781D-40FB-5F48-9415-7939FB608046}">
@@ -16752,8 +16658,8 @@
           <xm:sqref>U73:V73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{74D2F37C-13D1-174D-8752-1D5458419E7B}">
-            <xm:f>NOT(ISERROR(SEARCH("-",U63)))</xm:f>
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{954B8FBC-CAE0-954B-9C9E-1DF274C05C5C}">
+            <xm:f>NOT(ISERROR(SEARCH("-",U76)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -16761,19 +16667,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>U63:V63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{9B4E2539-837B-8F46-8E0F-F6F0E9EA5447}">
-            <xm:f>NOT(ISERROR(SEARCH("-",U23)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="4"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>U23:V23</xm:sqref>
+          <xm:sqref>U76:V76</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -17073,51 +16967,51 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6">
-    <cfRule type="containsText" dxfId="521" priority="11" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="506" priority="11" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="520" priority="8" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="505" priority="8" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:XFD6">
-    <cfRule type="containsText" dxfId="519" priority="10" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="504" priority="10" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="518" priority="12" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="503" priority="12" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:XFD33">
-    <cfRule type="containsText" dxfId="517" priority="7" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="502" priority="7" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="516" priority="9" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="501" priority="9" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="515" priority="1" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="500" priority="1" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="2" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="499" priority="2" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 N2">
-    <cfRule type="containsText" dxfId="513" priority="15" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="498" priority="15" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="containsText" dxfId="512" priority="14" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="497" priority="14" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="containsText" dxfId="511" priority="13" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="496" priority="13" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21435,236 +21329,236 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="B4:B6 B8:B10 B12:B14">
-    <cfRule type="beginsWith" dxfId="510" priority="47" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="495" priority="48" operator="beginsWith" text="X">
+      <formula>LEFT(B4,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="494" priority="47" operator="beginsWith" text="E">
       <formula>LEFT(B4,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="509" priority="48" operator="beginsWith" text="X">
-      <formula>LEFT(B4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B20">
-    <cfRule type="beginsWith" dxfId="508" priority="10" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="493" priority="11" operator="beginsWith" text="X">
+      <formula>LEFT(B16,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="492" priority="10" operator="beginsWith" text="E">
       <formula>LEFT(B16,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="507" priority="11" operator="beginsWith" text="X">
-      <formula>LEFT(B16,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="beginsWith" dxfId="506" priority="35" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="491" priority="36" operator="beginsWith" text="X">
+      <formula>LEFT(B24,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="490" priority="35" operator="beginsWith" text="E">
       <formula>LEFT(B24,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="505" priority="36" operator="beginsWith" text="X">
-      <formula>LEFT(B24,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="beginsWith" dxfId="504" priority="27" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="489" priority="27" operator="beginsWith" text="S">
       <formula>LEFT(C20,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="503" priority="28" operator="beginsWith" text="L">
+    <cfRule type="beginsWith" dxfId="488" priority="28" operator="beginsWith" text="L">
       <formula>LEFT(C20,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6 D8:D10 D12:D14">
-    <cfRule type="beginsWith" dxfId="502" priority="49" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="487" priority="50" operator="beginsWith" text="X">
+      <formula>LEFT(D4,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="486" priority="49" operator="beginsWith" text="E">
       <formula>LEFT(D4,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="501" priority="50" operator="beginsWith" text="X">
-      <formula>LEFT(D4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D20">
-    <cfRule type="beginsWith" dxfId="500" priority="12" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="485" priority="12" operator="beginsWith" text="E">
       <formula>LEFT(D16,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="499" priority="13" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="484" priority="13" operator="beginsWith" text="X">
       <formula>LEFT(D16,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D25">
-    <cfRule type="beginsWith" dxfId="498" priority="31" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="483" priority="32" operator="beginsWith" text="X">
+      <formula>LEFT(D24,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="482" priority="31" operator="beginsWith" text="E">
       <formula>LEFT(D24,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="497" priority="32" operator="beginsWith" text="X">
-      <formula>LEFT(D24,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F6 F8:F10 F12:F14 F16:F20 F24:F28">
-    <cfRule type="beginsWith" dxfId="496" priority="88" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="481" priority="89" operator="beginsWith" text="X">
+      <formula>LEFT(F4,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="480" priority="88" operator="beginsWith" text="E">
       <formula>LEFT(F4,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="495" priority="89" operator="beginsWith" text="X">
-      <formula>LEFT(F4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F167">
-    <cfRule type="beginsWith" dxfId="494" priority="109" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="479" priority="110" operator="beginsWith" text="X">
+      <formula>LEFT(F30,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="478" priority="109" operator="beginsWith" text="E">
       <formula>LEFT(F30,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="493" priority="110" operator="beginsWith" text="X">
-      <formula>LEFT(F30,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H20">
-    <cfRule type="beginsWith" dxfId="492" priority="90" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="477" priority="91" operator="beginsWith" text="L">
+      <formula>LEFT(H3,LEN("L"))="L"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="476" priority="90" operator="beginsWith" text="S">
       <formula>LEFT(H3,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="491" priority="91" operator="beginsWith" text="L">
-      <formula>LEFT(H3,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H167">
-    <cfRule type="beginsWith" dxfId="490" priority="73" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="475" priority="74" operator="beginsWith" text="L">
+      <formula>LEFT(H24,LEN("L"))="L"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="474" priority="73" operator="beginsWith" text="S">
       <formula>LEFT(H24,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="489" priority="74" operator="beginsWith" text="L">
-      <formula>LEFT(H24,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I20">
-    <cfRule type="beginsWith" dxfId="488" priority="86" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="473" priority="87" operator="beginsWith" text="Y">
+      <formula>LEFT(I3,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="472" priority="86" operator="beginsWith" text="N">
       <formula>LEFT(I3,LEN("N"))="N"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="487" priority="87" operator="beginsWith" text="Y">
-      <formula>LEFT(I3,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I167">
-    <cfRule type="beginsWith" dxfId="486" priority="71" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="471" priority="72" operator="beginsWith" text="Y">
+      <formula>LEFT(I24,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="470" priority="71" operator="beginsWith" text="N">
       <formula>LEFT(I24,LEN("N"))="N"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="485" priority="72" operator="beginsWith" text="Y">
-      <formula>LEFT(I24,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M20">
-    <cfRule type="beginsWith" dxfId="484" priority="82" operator="beginsWith" text="L">
+    <cfRule type="containsText" dxfId="469" priority="85" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",M3)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="468" priority="84" operator="beginsWith" text="M">
+      <formula>LEFT(M3,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="467" priority="83" operator="beginsWith" text="M">
+      <formula>LEFT(M3,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="466" priority="82" operator="beginsWith" text="L">
       <formula>LEFT(M3,LEN("L"))="L"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="483" priority="83" operator="beginsWith" text="M">
-      <formula>LEFT(M3,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="482" priority="84" operator="beginsWith" text="M">
-      <formula>LEFT(M3,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="85" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:M167">
-    <cfRule type="beginsWith" dxfId="480" priority="67" operator="beginsWith" text="L">
+    <cfRule type="beginsWith" dxfId="465" priority="68" operator="beginsWith" text="M">
+      <formula>LEFT(M24,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="464" priority="67" operator="beginsWith" text="L">
       <formula>LEFT(M24,LEN("L"))="L"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="479" priority="68" operator="beginsWith" text="M">
+    <cfRule type="containsText" dxfId="463" priority="70" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",M24)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="462" priority="69" operator="beginsWith" text="M">
       <formula>LEFT(M24,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="478" priority="69" operator="beginsWith" text="M">
-      <formula>LEFT(M24,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="70" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",M24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="beginsWith" dxfId="476" priority="21" operator="beginsWith" text="L">
+    <cfRule type="containsText" dxfId="461" priority="24" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",O7)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="460" priority="23" operator="beginsWith" text="M">
+      <formula>LEFT(O7,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="459" priority="22" operator="beginsWith" text="M">
+      <formula>LEFT(O7,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="458" priority="21" operator="beginsWith" text="L">
       <formula>LEFT(O7,LEN("L"))="L"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="475" priority="22" operator="beginsWith" text="M">
-      <formula>LEFT(O7,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="474" priority="23" operator="beginsWith" text="M">
-      <formula>LEFT(O7,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="473" priority="24" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T20">
-    <cfRule type="beginsWith" dxfId="472" priority="92" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="457" priority="96" operator="beginsWith" text="T">
+      <formula>LEFT(T3,LEN("T"))="T"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="456" priority="95" operator="beginsWith" text="S">
+      <formula>LEFT(T3,LEN("S"))="S"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="455" priority="94" operator="beginsWith" text="C">
+      <formula>LEFT(T3,LEN("C"))="C"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="454" priority="93" operator="beginsWith" text="B">
+      <formula>LEFT(T3,LEN("B"))="B"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="453" priority="92" operator="beginsWith" text="D">
       <formula>LEFT(T3,LEN("D"))="D"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="471" priority="93" operator="beginsWith" text="B">
-      <formula>LEFT(T3,LEN("B"))="B"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="470" priority="94" operator="beginsWith" text="C">
-      <formula>LEFT(T3,LEN("C"))="C"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="469" priority="95" operator="beginsWith" text="S">
-      <formula>LEFT(T3,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="468" priority="96" operator="beginsWith" text="T">
-      <formula>LEFT(T3,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:T167">
-    <cfRule type="beginsWith" dxfId="467" priority="75" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="452" priority="76" operator="beginsWith" text="B">
+      <formula>LEFT(T24,LEN("B"))="B"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="451" priority="75" operator="beginsWith" text="D">
       <formula>LEFT(T24,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="466" priority="76" operator="beginsWith" text="B">
-      <formula>LEFT(T24,LEN("B"))="B"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="465" priority="77" operator="beginsWith" text="C">
+    <cfRule type="beginsWith" dxfId="450" priority="77" operator="beginsWith" text="C">
       <formula>LEFT(T24,LEN("C"))="C"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="464" priority="78" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="449" priority="78" operator="beginsWith" text="S">
       <formula>LEFT(T24,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="463" priority="79" operator="beginsWith" text="T">
+    <cfRule type="beginsWith" dxfId="448" priority="79" operator="beginsWith" text="T">
       <formula>LEFT(T24,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U14">
-    <cfRule type="beginsWith" dxfId="461" priority="51" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="446" priority="51" operator="beginsWith" text="D">
       <formula>LEFT(U13,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="460" priority="52" operator="beginsWith" text="B">
+    <cfRule type="beginsWith" dxfId="445" priority="53" operator="beginsWith" text="C">
+      <formula>LEFT(U13,LEN("C"))="C"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="444" priority="52" operator="beginsWith" text="B">
       <formula>LEFT(U13,LEN("B"))="B"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="459" priority="53" operator="beginsWith" text="C">
-      <formula>LEFT(U13,LEN("C"))="C"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="458" priority="54" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="443" priority="54" operator="beginsWith" text="S">
       <formula>LEFT(U13,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="457" priority="55" operator="beginsWith" text="T">
+    <cfRule type="beginsWith" dxfId="442" priority="55" operator="beginsWith" text="T">
       <formula>LEFT(U13,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="beginsWith" dxfId="456" priority="14" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="441" priority="17" operator="beginsWith" text="S">
+      <formula>LEFT(U18,LEN("S"))="S"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="440" priority="18" operator="beginsWith" text="T">
+      <formula>LEFT(U18,LEN("T"))="T"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="439" priority="15" operator="beginsWith" text="B">
+      <formula>LEFT(U18,LEN("B"))="B"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="438" priority="14" operator="beginsWith" text="D">
       <formula>LEFT(U18,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="455" priority="15" operator="beginsWith" text="B">
-      <formula>LEFT(U18,LEN("B"))="B"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="454" priority="16" operator="beginsWith" text="C">
+    <cfRule type="beginsWith" dxfId="437" priority="16" operator="beginsWith" text="C">
       <formula>LEFT(U18,LEN("C"))="C"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="453" priority="17" operator="beginsWith" text="S">
-      <formula>LEFT(U18,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="452" priority="18" operator="beginsWith" text="T">
-      <formula>LEFT(U18,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:W12">
-    <cfRule type="cellIs" dxfId="448" priority="98" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="433" priority="98" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:W17">
-    <cfRule type="cellIs" dxfId="446" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="431" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20:W20">
-    <cfRule type="cellIs" dxfId="445" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="430" priority="62" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:W29">
-    <cfRule type="cellIs" dxfId="443" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="428" priority="65" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26068,219 +25962,219 @@
   <sheetProtection algorithmName="SHA-512" hashValue="rLsz05PB8iUmBalb0HZ5VznQdJ6vdE4PYwTjw+GZUxehcPajjkCi5/piqzEpX6uc1yCT91ZEC4OMD8vrld7XiA==" saltValue="U+bAYotwBVKmWafPqlCiww==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="B4:B6 B8:B10 B12:B14">
-    <cfRule type="beginsWith" dxfId="441" priority="27" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="426" priority="27" operator="beginsWith" text="E">
       <formula>LEFT(B4,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="440" priority="28" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="425" priority="28" operator="beginsWith" text="X">
       <formula>LEFT(B4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B20">
-    <cfRule type="beginsWith" dxfId="439" priority="5" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="424" priority="5" operator="beginsWith" text="E">
       <formula>LEFT(B16,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="438" priority="6" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="423" priority="6" operator="beginsWith" text="X">
       <formula>LEFT(B16,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="beginsWith" dxfId="437" priority="15" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="422" priority="15" operator="beginsWith" text="E">
       <formula>LEFT(B24,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="436" priority="16" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="421" priority="16" operator="beginsWith" text="X">
       <formula>LEFT(B24,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="beginsWith" dxfId="435" priority="7" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="420" priority="7" operator="beginsWith" text="S">
       <formula>LEFT(C20,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="434" priority="8" operator="beginsWith" text="L">
+    <cfRule type="beginsWith" dxfId="419" priority="8" operator="beginsWith" text="L">
       <formula>LEFT(C20,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6 D8:D10 D12:D14">
-    <cfRule type="beginsWith" dxfId="433" priority="29" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="418" priority="29" operator="beginsWith" text="E">
       <formula>LEFT(D4,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="432" priority="30" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="417" priority="30" operator="beginsWith" text="X">
       <formula>LEFT(D4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D20">
-    <cfRule type="beginsWith" dxfId="431" priority="9" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="416" priority="9" operator="beginsWith" text="E">
       <formula>LEFT(D16,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="430" priority="10" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="415" priority="10" operator="beginsWith" text="X">
       <formula>LEFT(D16,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D25">
-    <cfRule type="beginsWith" dxfId="429" priority="11" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="414" priority="11" operator="beginsWith" text="E">
       <formula>LEFT(D24,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="428" priority="12" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="413" priority="12" operator="beginsWith" text="X">
       <formula>LEFT(D24,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F6 F8:F10 F12:F14 F16:F20 F24:F25">
-    <cfRule type="beginsWith" dxfId="427" priority="94" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="412" priority="94" operator="beginsWith" text="E">
       <formula>LEFT(F4,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="426" priority="95" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="411" priority="95" operator="beginsWith" text="X">
       <formula>LEFT(F4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28 F30:F167">
-    <cfRule type="beginsWith" dxfId="425" priority="168" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="410" priority="169" operator="beginsWith" text="X">
+      <formula>LEFT(F28,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="409" priority="168" operator="beginsWith" text="E">
       <formula>LEFT(F28,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="424" priority="169" operator="beginsWith" text="X">
-      <formula>LEFT(F28,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H20 H24:H25">
-    <cfRule type="beginsWith" dxfId="423" priority="96" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="408" priority="96" operator="beginsWith" text="S">
       <formula>LEFT(H3,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="422" priority="97" operator="beginsWith" text="L">
+    <cfRule type="beginsWith" dxfId="407" priority="97" operator="beginsWith" text="L">
       <formula>LEFT(H3,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H167">
-    <cfRule type="beginsWith" dxfId="421" priority="53" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="406" priority="54" operator="beginsWith" text="L">
+      <formula>LEFT(H28,LEN("L"))="L"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="405" priority="53" operator="beginsWith" text="S">
       <formula>LEFT(H28,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="420" priority="54" operator="beginsWith" text="L">
-      <formula>LEFT(H28,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I20 I24:I25">
-    <cfRule type="beginsWith" dxfId="419" priority="92" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="404" priority="93" operator="beginsWith" text="Y">
+      <formula>LEFT(I3,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="403" priority="92" operator="beginsWith" text="N">
       <formula>LEFT(I3,LEN("N"))="N"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="418" priority="93" operator="beginsWith" text="Y">
-      <formula>LEFT(I3,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I167">
-    <cfRule type="beginsWith" dxfId="417" priority="51" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="402" priority="52" operator="beginsWith" text="Y">
+      <formula>LEFT(I28,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="401" priority="51" operator="beginsWith" text="N">
       <formula>LEFT(I28,LEN("N"))="N"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="416" priority="52" operator="beginsWith" text="Y">
-      <formula>LEFT(I28,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M20 M24:M25">
-    <cfRule type="beginsWith" dxfId="415" priority="88" operator="beginsWith" text="L">
+    <cfRule type="containsText" dxfId="400" priority="91" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",M3)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="399" priority="90" operator="beginsWith" text="M">
+      <formula>LEFT(M3,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="398" priority="89" operator="beginsWith" text="M">
+      <formula>LEFT(M3,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="397" priority="88" operator="beginsWith" text="L">
       <formula>LEFT(M3,LEN("L"))="L"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="414" priority="89" operator="beginsWith" text="M">
-      <formula>LEFT(M3,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="413" priority="90" operator="beginsWith" text="M">
-      <formula>LEFT(M3,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="91" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:M167">
-    <cfRule type="beginsWith" dxfId="411" priority="47" operator="beginsWith" text="L">
+    <cfRule type="containsText" dxfId="396" priority="50" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",M28)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="395" priority="49" operator="beginsWith" text="M">
+      <formula>LEFT(M28,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="394" priority="48" operator="beginsWith" text="M">
+      <formula>LEFT(M28,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="393" priority="47" operator="beginsWith" text="L">
       <formula>LEFT(M28,LEN("L"))="L"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="410" priority="48" operator="beginsWith" text="M">
-      <formula>LEFT(M28,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="409" priority="49" operator="beginsWith" text="M">
-      <formula>LEFT(M28,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="50" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",M28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="beginsWith" dxfId="407" priority="1" operator="beginsWith" text="L">
+    <cfRule type="beginsWith" dxfId="392" priority="1" operator="beginsWith" text="L">
       <formula>LEFT(O7,LEN("L"))="L"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="406" priority="2" operator="beginsWith" text="M">
+    <cfRule type="containsText" dxfId="391" priority="4" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",O7)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="390" priority="2" operator="beginsWith" text="M">
       <formula>LEFT(O7,LEN("M"))="M"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="405" priority="3" operator="beginsWith" text="M">
+    <cfRule type="beginsWith" dxfId="389" priority="3" operator="beginsWith" text="M">
       <formula>LEFT(O7,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="404" priority="4" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T20 T24:T25">
-    <cfRule type="beginsWith" dxfId="403" priority="98" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="388" priority="102" operator="beginsWith" text="T">
+      <formula>LEFT(T3,LEN("T"))="T"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="387" priority="101" operator="beginsWith" text="S">
+      <formula>LEFT(T3,LEN("S"))="S"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="386" priority="100" operator="beginsWith" text="C">
+      <formula>LEFT(T3,LEN("C"))="C"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="385" priority="99" operator="beginsWith" text="B">
+      <formula>LEFT(T3,LEN("B"))="B"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="384" priority="98" operator="beginsWith" text="D">
       <formula>LEFT(T3,LEN("D"))="D"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="402" priority="99" operator="beginsWith" text="B">
-      <formula>LEFT(T3,LEN("B"))="B"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="401" priority="100" operator="beginsWith" text="C">
-      <formula>LEFT(T3,LEN("C"))="C"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="400" priority="101" operator="beginsWith" text="S">
-      <formula>LEFT(T3,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="399" priority="102" operator="beginsWith" text="T">
-      <formula>LEFT(T3,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28:T167">
-    <cfRule type="beginsWith" dxfId="398" priority="55" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="383" priority="55" operator="beginsWith" text="D">
       <formula>LEFT(T28,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="397" priority="56" operator="beginsWith" text="B">
+    <cfRule type="beginsWith" dxfId="382" priority="56" operator="beginsWith" text="B">
       <formula>LEFT(T28,LEN("B"))="B"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="396" priority="57" operator="beginsWith" text="C">
+    <cfRule type="beginsWith" dxfId="381" priority="57" operator="beginsWith" text="C">
       <formula>LEFT(T28,LEN("C"))="C"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="395" priority="58" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="380" priority="58" operator="beginsWith" text="S">
       <formula>LEFT(T28,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="394" priority="59" operator="beginsWith" text="T">
+    <cfRule type="beginsWith" dxfId="379" priority="59" operator="beginsWith" text="T">
       <formula>LEFT(T28,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U14">
-    <cfRule type="beginsWith" dxfId="392" priority="31" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="377" priority="35" operator="beginsWith" text="T">
+      <formula>LEFT(U13,LEN("T"))="T"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="376" priority="32" operator="beginsWith" text="B">
+      <formula>LEFT(U13,LEN("B"))="B"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="375" priority="31" operator="beginsWith" text="D">
       <formula>LEFT(U13,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="391" priority="32" operator="beginsWith" text="B">
-      <formula>LEFT(U13,LEN("B"))="B"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="390" priority="33" operator="beginsWith" text="C">
+    <cfRule type="beginsWith" dxfId="374" priority="33" operator="beginsWith" text="C">
       <formula>LEFT(U13,LEN("C"))="C"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="389" priority="34" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="373" priority="34" operator="beginsWith" text="S">
       <formula>LEFT(U13,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="388" priority="35" operator="beginsWith" text="T">
-      <formula>LEFT(U13,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:W12">
-    <cfRule type="cellIs" dxfId="384" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="369" priority="104" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:W18">
-    <cfRule type="cellIs" dxfId="382" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="367" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20:W20">
-    <cfRule type="cellIs" dxfId="381" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="366" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:W29">
-    <cfRule type="cellIs" dxfId="379" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="363" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31920,236 +31814,236 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="B4:B6 B8:B10 B12:B14">
-    <cfRule type="beginsWith" dxfId="377" priority="20" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="362" priority="21" operator="beginsWith" text="X">
+      <formula>LEFT(B4,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="361" priority="20" operator="beginsWith" text="E">
       <formula>LEFT(B4,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="376" priority="21" operator="beginsWith" text="X">
-      <formula>LEFT(B4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B20">
-    <cfRule type="beginsWith" dxfId="375" priority="1" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="360" priority="2" operator="beginsWith" text="X">
+      <formula>LEFT(B16,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="359" priority="1" operator="beginsWith" text="E">
       <formula>LEFT(B16,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="374" priority="2" operator="beginsWith" text="X">
-      <formula>LEFT(B16,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="beginsWith" dxfId="373" priority="18" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="358" priority="19" operator="beginsWith" text="X">
+      <formula>LEFT(B24,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="357" priority="18" operator="beginsWith" text="E">
       <formula>LEFT(B24,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="372" priority="19" operator="beginsWith" text="X">
-      <formula>LEFT(B24,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="beginsWith" dxfId="371" priority="14" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="356" priority="14" operator="beginsWith" text="S">
       <formula>LEFT(C20,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="370" priority="15" operator="beginsWith" text="L">
+    <cfRule type="beginsWith" dxfId="355" priority="15" operator="beginsWith" text="L">
       <formula>LEFT(C20,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6 D8:D10 D12:D14">
-    <cfRule type="beginsWith" dxfId="369" priority="22" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="354" priority="23" operator="beginsWith" text="X">
+      <formula>LEFT(D4,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="353" priority="22" operator="beginsWith" text="E">
       <formula>LEFT(D4,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="368" priority="23" operator="beginsWith" text="X">
-      <formula>LEFT(D4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D20">
-    <cfRule type="beginsWith" dxfId="367" priority="3" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="352" priority="3" operator="beginsWith" text="E">
       <formula>LEFT(D16,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="366" priority="4" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="351" priority="4" operator="beginsWith" text="X">
       <formula>LEFT(D16,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D25">
-    <cfRule type="beginsWith" dxfId="365" priority="16" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="350" priority="17" operator="beginsWith" text="X">
+      <formula>LEFT(D24,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="349" priority="16" operator="beginsWith" text="E">
       <formula>LEFT(D24,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="364" priority="17" operator="beginsWith" text="X">
-      <formula>LEFT(D24,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F6 F8:F10 F12:F14 F16:F20 F24:F28">
-    <cfRule type="beginsWith" dxfId="363" priority="56" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="348" priority="57" operator="beginsWith" text="X">
+      <formula>LEFT(F4,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="347" priority="56" operator="beginsWith" text="E">
       <formula>LEFT(F4,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="362" priority="57" operator="beginsWith" text="X">
-      <formula>LEFT(F4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F167">
-    <cfRule type="beginsWith" dxfId="361" priority="68" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="346" priority="69" operator="beginsWith" text="X">
+      <formula>LEFT(F30,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="345" priority="68" operator="beginsWith" text="E">
       <formula>LEFT(F30,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="360" priority="69" operator="beginsWith" text="X">
-      <formula>LEFT(F30,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H20">
-    <cfRule type="beginsWith" dxfId="359" priority="58" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="344" priority="59" operator="beginsWith" text="L">
+      <formula>LEFT(H3,LEN("L"))="L"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="343" priority="58" operator="beginsWith" text="S">
       <formula>LEFT(H3,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="358" priority="59" operator="beginsWith" text="L">
-      <formula>LEFT(H3,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H167">
-    <cfRule type="beginsWith" dxfId="357" priority="41" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="342" priority="42" operator="beginsWith" text="L">
+      <formula>LEFT(H24,LEN("L"))="L"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="341" priority="41" operator="beginsWith" text="S">
       <formula>LEFT(H24,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="356" priority="42" operator="beginsWith" text="L">
-      <formula>LEFT(H24,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I20">
-    <cfRule type="beginsWith" dxfId="355" priority="54" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="340" priority="55" operator="beginsWith" text="Y">
+      <formula>LEFT(I3,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="339" priority="54" operator="beginsWith" text="N">
       <formula>LEFT(I3,LEN("N"))="N"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="354" priority="55" operator="beginsWith" text="Y">
-      <formula>LEFT(I3,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I167">
-    <cfRule type="beginsWith" dxfId="353" priority="39" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="338" priority="40" operator="beginsWith" text="Y">
+      <formula>LEFT(I24,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="337" priority="39" operator="beginsWith" text="N">
       <formula>LEFT(I24,LEN("N"))="N"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="352" priority="40" operator="beginsWith" text="Y">
-      <formula>LEFT(I24,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M20">
-    <cfRule type="beginsWith" dxfId="351" priority="50" operator="beginsWith" text="L">
+    <cfRule type="containsText" dxfId="336" priority="53" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",M3)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="335" priority="52" operator="beginsWith" text="M">
+      <formula>LEFT(M3,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="334" priority="51" operator="beginsWith" text="M">
+      <formula>LEFT(M3,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="333" priority="50" operator="beginsWith" text="L">
       <formula>LEFT(M3,LEN("L"))="L"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="350" priority="51" operator="beginsWith" text="M">
-      <formula>LEFT(M3,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="349" priority="52" operator="beginsWith" text="M">
-      <formula>LEFT(M3,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="53" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:M167">
-    <cfRule type="beginsWith" dxfId="347" priority="35" operator="beginsWith" text="L">
+    <cfRule type="beginsWith" dxfId="332" priority="36" operator="beginsWith" text="M">
+      <formula>LEFT(M24,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="331" priority="35" operator="beginsWith" text="L">
       <formula>LEFT(M24,LEN("L"))="L"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="346" priority="36" operator="beginsWith" text="M">
+    <cfRule type="containsText" dxfId="330" priority="38" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",M24)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="329" priority="37" operator="beginsWith" text="M">
       <formula>LEFT(M24,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="345" priority="37" operator="beginsWith" text="M">
-      <formula>LEFT(M24,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="344" priority="38" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",M24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="beginsWith" dxfId="343" priority="10" operator="beginsWith" text="L">
+    <cfRule type="containsText" dxfId="328" priority="13" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",O7)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="327" priority="12" operator="beginsWith" text="M">
+      <formula>LEFT(O7,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="326" priority="11" operator="beginsWith" text="M">
+      <formula>LEFT(O7,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="325" priority="10" operator="beginsWith" text="L">
       <formula>LEFT(O7,LEN("L"))="L"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="342" priority="11" operator="beginsWith" text="M">
-      <formula>LEFT(O7,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="341" priority="12" operator="beginsWith" text="M">
-      <formula>LEFT(O7,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="13" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T20">
-    <cfRule type="beginsWith" dxfId="339" priority="60" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="324" priority="64" operator="beginsWith" text="T">
+      <formula>LEFT(T3,LEN("T"))="T"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="323" priority="63" operator="beginsWith" text="S">
+      <formula>LEFT(T3,LEN("S"))="S"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="322" priority="62" operator="beginsWith" text="C">
+      <formula>LEFT(T3,LEN("C"))="C"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="321" priority="61" operator="beginsWith" text="B">
+      <formula>LEFT(T3,LEN("B"))="B"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="320" priority="60" operator="beginsWith" text="D">
       <formula>LEFT(T3,LEN("D"))="D"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="338" priority="61" operator="beginsWith" text="B">
-      <formula>LEFT(T3,LEN("B"))="B"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="337" priority="62" operator="beginsWith" text="C">
-      <formula>LEFT(T3,LEN("C"))="C"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="336" priority="63" operator="beginsWith" text="S">
-      <formula>LEFT(T3,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="335" priority="64" operator="beginsWith" text="T">
-      <formula>LEFT(T3,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:T167">
-    <cfRule type="beginsWith" dxfId="334" priority="43" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="319" priority="44" operator="beginsWith" text="B">
+      <formula>LEFT(T24,LEN("B"))="B"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="318" priority="43" operator="beginsWith" text="D">
       <formula>LEFT(T24,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="333" priority="44" operator="beginsWith" text="B">
-      <formula>LEFT(T24,LEN("B"))="B"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="332" priority="45" operator="beginsWith" text="C">
+    <cfRule type="beginsWith" dxfId="317" priority="45" operator="beginsWith" text="C">
       <formula>LEFT(T24,LEN("C"))="C"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="331" priority="46" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="316" priority="46" operator="beginsWith" text="S">
       <formula>LEFT(T24,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="330" priority="47" operator="beginsWith" text="T">
+    <cfRule type="beginsWith" dxfId="315" priority="47" operator="beginsWith" text="T">
       <formula>LEFT(T24,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U14">
-    <cfRule type="beginsWith" dxfId="328" priority="24" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="313" priority="24" operator="beginsWith" text="D">
       <formula>LEFT(U13,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="327" priority="25" operator="beginsWith" text="B">
+    <cfRule type="beginsWith" dxfId="312" priority="26" operator="beginsWith" text="C">
+      <formula>LEFT(U13,LEN("C"))="C"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="311" priority="25" operator="beginsWith" text="B">
       <formula>LEFT(U13,LEN("B"))="B"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="326" priority="26" operator="beginsWith" text="C">
-      <formula>LEFT(U13,LEN("C"))="C"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="325" priority="27" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="310" priority="27" operator="beginsWith" text="S">
       <formula>LEFT(U13,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="324" priority="28" operator="beginsWith" text="T">
+    <cfRule type="beginsWith" dxfId="309" priority="28" operator="beginsWith" text="T">
       <formula>LEFT(U13,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="beginsWith" dxfId="323" priority="5" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="308" priority="8" operator="beginsWith" text="S">
+      <formula>LEFT(U18,LEN("S"))="S"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="307" priority="9" operator="beginsWith" text="T">
+      <formula>LEFT(U18,LEN("T"))="T"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="306" priority="6" operator="beginsWith" text="B">
+      <formula>LEFT(U18,LEN("B"))="B"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="305" priority="5" operator="beginsWith" text="D">
       <formula>LEFT(U18,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="322" priority="6" operator="beginsWith" text="B">
-      <formula>LEFT(U18,LEN("B"))="B"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="321" priority="7" operator="beginsWith" text="C">
+    <cfRule type="beginsWith" dxfId="304" priority="7" operator="beginsWith" text="C">
       <formula>LEFT(U18,LEN("C"))="C"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="320" priority="8" operator="beginsWith" text="S">
-      <formula>LEFT(U18,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="319" priority="9" operator="beginsWith" text="T">
-      <formula>LEFT(U18,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:W12">
-    <cfRule type="cellIs" dxfId="315" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="300" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:W17">
-    <cfRule type="cellIs" dxfId="313" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="298" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20:W20">
-    <cfRule type="cellIs" dxfId="312" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:W29">
-    <cfRule type="cellIs" dxfId="310" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="295" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36553,219 +36447,219 @@
   <sheetProtection algorithmName="SHA-512" hashValue="rLsz05PB8iUmBalb0HZ5VznQdJ6vdE4PYwTjw+GZUxehcPajjkCi5/piqzEpX6uc1yCT91ZEC4OMD8vrld7XiA==" saltValue="U+bAYotwBVKmWafPqlCiww==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="B4:B6 B8:B10 B12:B14">
-    <cfRule type="beginsWith" dxfId="308" priority="15" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="293" priority="15" operator="beginsWith" text="E">
       <formula>LEFT(B4,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="307" priority="16" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="292" priority="16" operator="beginsWith" text="X">
       <formula>LEFT(B4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B20">
-    <cfRule type="beginsWith" dxfId="306" priority="5" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="291" priority="5" operator="beginsWith" text="E">
       <formula>LEFT(B16,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="305" priority="6" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="290" priority="6" operator="beginsWith" text="X">
       <formula>LEFT(B16,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="beginsWith" dxfId="304" priority="13" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="289" priority="13" operator="beginsWith" text="E">
       <formula>LEFT(B24,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="303" priority="14" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="288" priority="14" operator="beginsWith" text="X">
       <formula>LEFT(B24,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="beginsWith" dxfId="302" priority="7" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="287" priority="7" operator="beginsWith" text="S">
       <formula>LEFT(C20,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="301" priority="8" operator="beginsWith" text="L">
+    <cfRule type="beginsWith" dxfId="286" priority="8" operator="beginsWith" text="L">
       <formula>LEFT(C20,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6 D8:D10 D12:D14">
-    <cfRule type="beginsWith" dxfId="300" priority="17" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="285" priority="17" operator="beginsWith" text="E">
       <formula>LEFT(D4,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="299" priority="18" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="284" priority="18" operator="beginsWith" text="X">
       <formula>LEFT(D4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D20">
-    <cfRule type="beginsWith" dxfId="298" priority="9" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="283" priority="9" operator="beginsWith" text="E">
       <formula>LEFT(D16,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="297" priority="10" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="282" priority="10" operator="beginsWith" text="X">
       <formula>LEFT(D16,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D25">
-    <cfRule type="beginsWith" dxfId="296" priority="11" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="281" priority="11" operator="beginsWith" text="E">
       <formula>LEFT(D24,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="295" priority="12" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="280" priority="12" operator="beginsWith" text="X">
       <formula>LEFT(D24,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F6 F8:F10 F12:F14 F16:F20 F24:F25">
-    <cfRule type="beginsWith" dxfId="294" priority="51" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="279" priority="51" operator="beginsWith" text="E">
       <formula>LEFT(F4,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="293" priority="52" operator="beginsWith" text="X">
+    <cfRule type="beginsWith" dxfId="278" priority="52" operator="beginsWith" text="X">
       <formula>LEFT(F4,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28 F30:F167">
-    <cfRule type="beginsWith" dxfId="292" priority="63" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="277" priority="64" operator="beginsWith" text="X">
+      <formula>LEFT(F28,LEN("X"))="X"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="276" priority="63" operator="beginsWith" text="E">
       <formula>LEFT(F28,LEN("E"))="E"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="291" priority="64" operator="beginsWith" text="X">
-      <formula>LEFT(F28,LEN("X"))="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H20 H24:H25">
-    <cfRule type="beginsWith" dxfId="290" priority="53" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="275" priority="53" operator="beginsWith" text="S">
       <formula>LEFT(H3,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="289" priority="54" operator="beginsWith" text="L">
+    <cfRule type="beginsWith" dxfId="274" priority="54" operator="beginsWith" text="L">
       <formula>LEFT(H3,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H167">
-    <cfRule type="beginsWith" dxfId="288" priority="36" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="273" priority="37" operator="beginsWith" text="L">
+      <formula>LEFT(H28,LEN("L"))="L"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="272" priority="36" operator="beginsWith" text="S">
       <formula>LEFT(H28,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="287" priority="37" operator="beginsWith" text="L">
-      <formula>LEFT(H28,LEN("L"))="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I20 I24:I25">
-    <cfRule type="beginsWith" dxfId="286" priority="49" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="271" priority="50" operator="beginsWith" text="Y">
+      <formula>LEFT(I3,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="270" priority="49" operator="beginsWith" text="N">
       <formula>LEFT(I3,LEN("N"))="N"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="285" priority="50" operator="beginsWith" text="Y">
-      <formula>LEFT(I3,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I167">
-    <cfRule type="beginsWith" dxfId="284" priority="34" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="269" priority="35" operator="beginsWith" text="Y">
+      <formula>LEFT(I28,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="268" priority="34" operator="beginsWith" text="N">
       <formula>LEFT(I28,LEN("N"))="N"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="283" priority="35" operator="beginsWith" text="Y">
-      <formula>LEFT(I28,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M20 M24:M25">
-    <cfRule type="beginsWith" dxfId="282" priority="45" operator="beginsWith" text="L">
+    <cfRule type="containsText" dxfId="267" priority="48" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",M3)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="266" priority="47" operator="beginsWith" text="M">
+      <formula>LEFT(M3,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="265" priority="46" operator="beginsWith" text="M">
+      <formula>LEFT(M3,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="264" priority="45" operator="beginsWith" text="L">
       <formula>LEFT(M3,LEN("L"))="L"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="281" priority="46" operator="beginsWith" text="M">
-      <formula>LEFT(M3,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="280" priority="47" operator="beginsWith" text="M">
-      <formula>LEFT(M3,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="48" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:M167">
-    <cfRule type="beginsWith" dxfId="278" priority="30" operator="beginsWith" text="L">
+    <cfRule type="containsText" dxfId="263" priority="33" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",M28)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="262" priority="32" operator="beginsWith" text="M">
+      <formula>LEFT(M28,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="261" priority="31" operator="beginsWith" text="M">
+      <formula>LEFT(M28,LEN("M"))="M"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="260" priority="30" operator="beginsWith" text="L">
       <formula>LEFT(M28,LEN("L"))="L"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="277" priority="31" operator="beginsWith" text="M">
-      <formula>LEFT(M28,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="276" priority="32" operator="beginsWith" text="M">
-      <formula>LEFT(M28,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="33" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",M28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="beginsWith" dxfId="274" priority="1" operator="beginsWith" text="L">
+    <cfRule type="beginsWith" dxfId="259" priority="1" operator="beginsWith" text="L">
       <formula>LEFT(O7,LEN("L"))="L"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="273" priority="2" operator="beginsWith" text="M">
+    <cfRule type="containsText" dxfId="258" priority="4" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",O7)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="257" priority="2" operator="beginsWith" text="M">
       <formula>LEFT(O7,LEN("M"))="M"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="272" priority="3" operator="beginsWith" text="M">
+    <cfRule type="beginsWith" dxfId="256" priority="3" operator="beginsWith" text="M">
       <formula>LEFT(O7,LEN("M"))="M"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="4" operator="containsText" text="M">
-      <formula>NOT(ISERROR(SEARCH("M",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T20 T24:T25">
-    <cfRule type="beginsWith" dxfId="270" priority="55" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="255" priority="59" operator="beginsWith" text="T">
+      <formula>LEFT(T3,LEN("T"))="T"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="254" priority="58" operator="beginsWith" text="S">
+      <formula>LEFT(T3,LEN("S"))="S"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="253" priority="57" operator="beginsWith" text="C">
+      <formula>LEFT(T3,LEN("C"))="C"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="252" priority="56" operator="beginsWith" text="B">
+      <formula>LEFT(T3,LEN("B"))="B"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="251" priority="55" operator="beginsWith" text="D">
       <formula>LEFT(T3,LEN("D"))="D"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="269" priority="56" operator="beginsWith" text="B">
-      <formula>LEFT(T3,LEN("B"))="B"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="268" priority="57" operator="beginsWith" text="C">
-      <formula>LEFT(T3,LEN("C"))="C"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="267" priority="58" operator="beginsWith" text="S">
-      <formula>LEFT(T3,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="266" priority="59" operator="beginsWith" text="T">
-      <formula>LEFT(T3,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28:T167">
-    <cfRule type="beginsWith" dxfId="265" priority="38" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="250" priority="38" operator="beginsWith" text="D">
       <formula>LEFT(T28,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="264" priority="39" operator="beginsWith" text="B">
+    <cfRule type="beginsWith" dxfId="249" priority="39" operator="beginsWith" text="B">
       <formula>LEFT(T28,LEN("B"))="B"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="263" priority="40" operator="beginsWith" text="C">
+    <cfRule type="beginsWith" dxfId="248" priority="40" operator="beginsWith" text="C">
       <formula>LEFT(T28,LEN("C"))="C"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="262" priority="41" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="247" priority="41" operator="beginsWith" text="S">
       <formula>LEFT(T28,LEN("S"))="S"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="261" priority="42" operator="beginsWith" text="T">
+    <cfRule type="beginsWith" dxfId="246" priority="42" operator="beginsWith" text="T">
       <formula>LEFT(T28,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U14">
-    <cfRule type="beginsWith" dxfId="259" priority="19" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="244" priority="23" operator="beginsWith" text="T">
+      <formula>LEFT(U13,LEN("T"))="T"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="243" priority="20" operator="beginsWith" text="B">
+      <formula>LEFT(U13,LEN("B"))="B"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="242" priority="19" operator="beginsWith" text="D">
       <formula>LEFT(U13,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="258" priority="20" operator="beginsWith" text="B">
-      <formula>LEFT(U13,LEN("B"))="B"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="257" priority="21" operator="beginsWith" text="C">
+    <cfRule type="beginsWith" dxfId="241" priority="21" operator="beginsWith" text="C">
       <formula>LEFT(U13,LEN("C"))="C"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="256" priority="22" operator="beginsWith" text="S">
+    <cfRule type="beginsWith" dxfId="240" priority="22" operator="beginsWith" text="S">
       <formula>LEFT(U13,LEN("S"))="S"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="255" priority="23" operator="beginsWith" text="T">
-      <formula>LEFT(U13,LEN("T"))="T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:W12">
-    <cfRule type="cellIs" dxfId="251" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:W18">
-    <cfRule type="cellIs" dxfId="249" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20:W20">
-    <cfRule type="cellIs" dxfId="248" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:W29">
-    <cfRule type="cellIs" dxfId="246" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Journal.xlsx
+++ b/Journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hossein/Journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A669D58-EB7D-3648-A649-ABF232373038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B70612C-8CFA-0A4A-B8BD-BBAA5AD03D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="33600" windowHeight="19440" activeTab="13" xr2:uid="{809DD602-1425-EC47-9181-67BC39C26364}"/>
   </bookViews>
@@ -71,7 +71,6 @@
     <definedName name="table">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -623,7 +622,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="113">
   <si>
     <t>ROW</t>
   </si>
@@ -2555,6 +2554,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -2565,26 +2574,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1" tint="0.24994659260841701"/>
       </font>
     </dxf>
@@ -2635,6 +2634,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
@@ -2646,11 +2650,6 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -12669,7 +12668,7 @@
       <pane xSplit="23" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -12812,21 +12811,21 @@
       <c r="I5" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="112" t="s">
-        <v>109</v>
+      <c r="J5" s="112">
+        <v>0.25</v>
       </c>
       <c r="K5" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="L5" s="112" t="s">
-        <v>74</v>
+      <c r="L5" s="112">
+        <v>0.6</v>
       </c>
       <c r="M5" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="N5" s="155" t="str">
-        <f>IF(AND(J5="YOUR RISK",L5="SELECT"),"EMPTY")</f>
-        <v>EMPTY</v>
+      <c r="N5" s="155">
+        <f>IF(AND(J5="YOUR RISK",L5="SELECT"),"EMPTY",IF(AND(J5=0.25,L5=0.5),7.5,IF(AND(J5=0.25,L5=0.6),6.25,IF(AND(J5="YOUR RISK"),"EMPTY",IF(AND(L5="SELECT"),"EMPTY")))))</f>
+        <v>6.25</v>
       </c>
       <c r="O5" s="154" t="s">
         <v>110</v>
@@ -14246,18 +14245,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:XFD32">
-    <cfRule type="containsText" dxfId="49" priority="38" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="49" priority="40" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="40" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:XFD36">
-    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="30" operator="containsText" text="SELECT">
+    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="SELECT">
       <formula>NOT(ISERROR(SEARCH("SELECT",A36)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14308,24 +14307,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U16">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U36">
-    <cfRule type="cellIs" dxfId="32" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21711,7 +21710,7 @@
       <pane xSplit="22" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21791,14 +21790,14 @@
         <v>54</v>
       </c>
       <c r="E3" s="83">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="63">
         <f>IF(AND(A3=15000,C3=0.25,E3=0.5),7.5,IF(AND(A3=15000,C3=0.25,E3=0.6),6.25,IF(AND(A3=15000,C3=0.25,E3=0.7),5.35,IF(AND(A3=15000,C3=0.25,E3=0.8),4.68,IF(AND(A3=15000,C3=0.25,E3=0.9),4.16,IF(AND(A3=15000,C3=0.25,E3=1),3.75,IF(AND(A3=15000,C3=0.25,E3=1.1),3.4,IF(AND(A3=15000,C3=0.25,E3=1.2),3.12,IF(AND(A3=15000,C3=0.25,E3=1.3),2.88,IF(AND(A3=15000,C3=0.25,E3=1.4),2.67,IF(AND(A3=15000,C3=0.25,E3=1.5),2.5,IF(AND(A3=15000,C3=0.25,E3=1.6),2.34,IF(AND(A3=15000,C3=0.25,E3=1.7),2.2,IF(AND(A3=15000,C3=0.25,E3=1.8),2.08,IF(AND(A3=15000,C3=0.25,E3=1.9),1.97,IF(AND(A3=15000,C3=0.25,E3=2),1.87,IF(AND(A3=15000,C3=0.25,E3=2.1),1.78,IF(AND(A3=15000,C3=0.25,E3=2.2),1.7,IF(AND(A3=15000,C3=0.25,E3=2.3),1.63,IF(AND(A3=15000,C3=0.25,E3=2.4),1.56,IF(AND(A3=15000,C3=0.25,E3=2.5),1.5,IF(AND(A3=15000,C3=0.25,E3=2.6),1.44,IF(AND(A3=15000,C3=0.25,E3=2.7),1.38,IF(AND(A3=15000,C3=0.25,E3=2.8),1.33,IF(AND(A3=15000,C3=0.25,E3=2.9),1.29,IF(AND(A3=15000,C3=0.25,E3=3),1.25,IF(AND(A3=15000,C3=0.25,E3=3.1),1.2,IF(AND(A3=15000,C3=0.25,E3=3.2),1.17,IF(AND(A3=15000,C3=0.25,E3=3.3),1.13,IF(AND(A3=15000,C3=0.25,E3=3.4),1.1,IF(AND(A3=15000,C3=0.25,E3=3.5),1.07,IF(AND(A3=15000,C3=0.25,E3=3.6),1.04,IF(AND(A3=15000,C3=0.25,E3=3.7),1.01,IF(AND(A3=15000,C3=0.25,E3=3.8),0.98,IF(AND(A3=15000,C3=0.25,E3=3.9),0.96,IF(AND(A3=15000,C3=0.25,E3=4),0.93,IF(AND(A3=15000,C3=0.25,E3=4.1),0.91,IF(AND(A3=15000,C3=0.25,E3=4.2),0.89,IF(AND(A3=15000,C3=0.25,E3=4.3),0.87,IF(AND(A3=15000,C3=0.25,E3=4.4),0.85,IF(AND(A3=15000,C3=0.25,E3=4.5),0.83,IF(AND(A3=15000,C3=0.25,E3=4.6),0.81,IF(AND(A3=15000,C3=0.25,E3=4.7),0.79,IF(AND(A3=15000,C3=0.25,E3=4.8),0.78,IF(AND(A3=15000,C3=0.25,E3=4.9),0.76,IF(AND(A3=15000,C3=0.25,E3=5),0.75,IF(AND(A3=15000,C3=0.25,E3=5.1),0.73,IF(AND(A3=15000,C3=0.25,E3=5.2),0.72,IF(AND(A3=15000,C3=0.25,E3=5.3),0.7,IF(AND(A3=15000,C3=0.25,E3=5.4),0.69,IF(AND(A3=15000,C3=0.25,E3=5.5),0.68,IF(AND(A3=15000,C3=0.25,E3=5.6),0.66,IF(AND(A3=15000,C3=0.25,E3=5.7),0.65,IF(AND(A3=15000,C3=0.25,E3=5.8),0.64,IF(AND(A3=15000,C3=0.25,E3=5.9),0.63,IF(AND(A3=15000,C3=0.25,E3=6),0.62,IF(AND(A3=15000,C3=0.25,E3=6.1),0.61,IF(AND(A3=15000,C3=0.25,E3=6.2),0.6,IF(AND(A3=15000,C3=0.25,E3=6.3),0.59,IF(AND(A3=15000,C3=0.25,E3=6.4),0.58,IF(AND(A3=15000,C3=0.25,E3=6.5),0.57,IF(AND(A3=15000,C3=0.25,E3=6.6),0.56,IF(AND(A3=15000,C3=0.25,E3=6.7),0.55,IF(AND(A3=15000,C3=0.25,E3="Enter Stop"),"Emty",IF(C3="Your Risk","Emty")))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))</f>
-        <v>2.67</v>
+        <v>6.25</v>
       </c>
       <c r="H3" s="65"/>
       <c r="I3" s="65"/>
